--- a/ActiTimeAutomationTestData/0003_TestScenarios/0003_TestScenarios.xlsx
+++ b/ActiTimeAutomationTestData/0003_TestScenarios/0003_TestScenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ActiTimeAutomationTestData\0003_TestScenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TechnocratsBatch6\ActiTimeAutomation\ActiTimeAutomationTestData\0003_TestScenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,11 +25,11 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Anil Rathod - Personal View" guid="{A60097CE-BA72-4521-A325-0C502E277780}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Pradnya Kadam - Personal View" guid="{5876008E-2F23-4AED-8E0B-74C8F393B9C4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Rohit Dagade - Personal View" guid="{F296694F-F9EE-42AE-8BB8-386E3D291FC0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Sayali Udugade - Personal View" guid="{3CBE2A68-BEBF-442A-90B6-1C30D4E8DDF0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="Anil - Personal View" guid="{1A6EE54A-D241-4738-903E-5FF61A5C4561}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Sayali Udugade - Personal View" guid="{3CBE2A68-BEBF-442A-90B6-1C30D4E8DDF0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="Rohit Dagade - Personal View" guid="{F296694F-F9EE-42AE-8BB8-386E3D291FC0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Pradnya Kadam - Personal View" guid="{5876008E-2F23-4AED-8E0B-74C8F393B9C4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Anil Rathod - Personal View" guid="{A60097CE-BA72-4521-A325-0C502E277780}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Sr No</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>TS_Tasks_001</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Login into ActiTime website and Create Task</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TaskCreate</t>
   </si>
   <si>
     <t>Failed</t>
@@ -232,7 +250,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AE2BC1E9-2408-479C-95F7-551D483B27C7}" diskRevisions="1" revisionId="990" version="72">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C8B78D79-4116-4262-96DE-F67C5728AA5D}" diskRevisions="1" revisionId="1001" version="74">
   <header guid="{198A9384-20CA-4BB0-9ADE-E5D1419622E8}" dateTime="2023-03-25T19:28:01" maxSheetId="2" userName="Anil" r:id="rId70" minRId="979" maxRId="988">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -244,6 +262,16 @@
     </sheetIdMap>
   </header>
   <header guid="{AE2BC1E9-2408-479C-95F7-551D483B27C7}" dateTime="2023-03-25T20:33:37" maxSheetId="2" userName="Anil" r:id="rId72" minRId="990">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{06F14912-05D7-444B-9952-0D69C61B478B}" dateTime="2023-03-28T20:22:56" maxSheetId="2" userName="Anil" r:id="rId73" minRId="991" maxRId="1000">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C8B78D79-4116-4262-96DE-F67C5728AA5D}" dateTime="2023-03-28T20:48:07" maxSheetId="2" userName="Anil" r:id="rId74" minRId="1001">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -285,6 +313,290 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="991" sId="1" odxf="1" dxf="1">
+    <nc r="A3" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="B3" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="C3" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D3" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="E3" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="992" sId="1" odxf="1" dxf="1">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>1</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="G3" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="993" sId="1" odxf="1" dxf="1">
+    <nc r="H3" t="inlineStr">
+      <is>
+        <t>Common</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rcc rId="994" sId="1" odxf="1" dxf="1">
+    <nc r="I3" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="J3" start="0" length="0">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="995" sId="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>TS_Tasks_001</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="996" sId="1">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>Tasks</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="997" sId="1">
+    <nc r="E3" t="inlineStr">
+      <is>
+        <t>Login into ActiTime website and Create Task</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="998" sId="1">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <t>TC_02</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="999" sId="1">
+    <oc r="I2" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1000" sId="1">
+    <nc r="J3" t="inlineStr">
+      <is>
+        <t>Not Started</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="979" sId="1" xfDxf="1" dxf="1">
@@ -1594,7 +1906,19 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1001" sId="1">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>TaskCreate</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -1861,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,20 +2263,59 @@
         <v>10</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1A6EE54A-D241-4738-903E-5FF61A5C4561}" topLeftCell="C1">
-      <selection activeCell="K4" sqref="K4"/>
+    <customSheetView guid="{A60097CE-BA72-4521-A325-0C502E277780}" filter="1" showAutoFilter="1" topLeftCell="I1">
+      <selection activeCell="R221" sqref="R221"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:W250">
+        <filterColumn colId="8">
+          <filters>
+            <filter val="Yes"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3CBE2A68-BEBF-442A-90B6-1C30D4E8DDF0}" topLeftCell="A232">
-      <selection activeCell="A246" sqref="A246:U246"/>
+    <customSheetView guid="{5876008E-2F23-4AED-8E0B-74C8F393B9C4}" topLeftCell="A235">
+      <selection activeCell="E237" sqref="E237"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F296694F-F9EE-42AE-8BB8-386E3D291FC0}" filter="1" showAutoFilter="1" topLeftCell="P1">
@@ -1969,20 +2332,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{5876008E-2F23-4AED-8E0B-74C8F393B9C4}" topLeftCell="A235">
-      <selection activeCell="E237" sqref="E237"/>
+    <customSheetView guid="{3CBE2A68-BEBF-442A-90B6-1C30D4E8DDF0}" topLeftCell="A232">
+      <selection activeCell="A246" sqref="A246:U246"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{A60097CE-BA72-4521-A325-0C502E277780}" filter="1" showAutoFilter="1" topLeftCell="I1">
-      <selection activeCell="R221" sqref="R221"/>
+    <customSheetView guid="{1A6EE54A-D241-4738-903E-5FF61A5C4561}" topLeftCell="C1">
+      <selection activeCell="K4" sqref="K4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:W250">
-        <filterColumn colId="8">
-          <filters>
-            <filter val="Yes"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
